--- a/address.xlsx
+++ b/address.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>address</t>
   </si>
@@ -41,39 +41,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>0xf0c3e412f497ed311cea84d73127697ad761a2aa</t>
-  </si>
-  <si>
-    <t>http://168.199.166.21:6553</t>
-  </si>
-  <si>
-    <t>ptldrdsk</t>
-  </si>
-  <si>
-    <t>0x774041a6cbd48320af25c95286d8520da2c0ebad</t>
-  </si>
-  <si>
-    <t>http://168.199.166.187:6719</t>
-  </si>
-  <si>
-    <t>0x214b283330d4ca7ebac76043b26e3963c2bca52b</t>
-  </si>
-  <si>
-    <t>http://45.114.15.18:5999</t>
-  </si>
-  <si>
-    <t>0xc182c4547289e1b675893fa46a547422da8e986f</t>
-  </si>
-  <si>
-    <t>http://45.114.15.176:6157</t>
-  </si>
-  <si>
-    <t>0x87ab63874fbf7f9ded109f7192fccca066898aa5</t>
-  </si>
-  <si>
-    <t>http://45.114.15.125:6106</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1029,7 @@
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="TableStylePreset8_Accent1 1" pivot="0" count="7" xr9:uid="{962E170C-6D6D-46E7-B4A9-8D72D7C537E9}">
+    <tableStyle name="TableStylePreset8_Accent1 1" pivot="0" count="7" xr9:uid="{F6C34E88-7044-4661-B513-7B81FC7E5D16}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -1351,10 +1318,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="43.925" customWidth="1"/>
     <col min="2" max="2" width="29.3583333333333" customWidth="1"/>
@@ -1377,74 +1344,34 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
@@ -1537,13 +1464,6 @@
       <c r="D21" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://168.199.166.21:6553" tooltip="http://168.199.166.21:6553"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://168.199.166.187:6719" tooltip="http://168.199.166.187:6719"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://45.114.15.18:5999" tooltip="http://45.114.15.18:5999"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://45.114.15.176:6157" tooltip="http://45.114.15.176:6157"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://45.114.15.125:6106" tooltip="http://45.114.15.125:6106"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
@@ -1559,7 +1479,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1576,7 +1496,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
